--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLearning\Python_Files\Flask_DataPlot\DataPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CA365E-3A30-4CC3-876E-13DDA2B34D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1943E-4BDD-46DF-B626-DEE6A6178DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99651DDA-8DA4-4712-986B-797DF3D72585}"/>
   </bookViews>
@@ -431,165 +431,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35492822-1D3E-4689-9B05-80A97370A289}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-30</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>-25</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>-20</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>-15</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>-10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>-5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>20</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>122</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLearning\Python_Files\Flask_DataPlot\DataPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1943E-4BDD-46DF-B626-DEE6A6178DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6038B6-9A0A-41B1-9044-9E515B94E7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99651DDA-8DA4-4712-986B-797DF3D72585}"/>
+    <workbookView xWindow="12660" yWindow="2556" windowWidth="9528" windowHeight="8196" xr2:uid="{99651DDA-8DA4-4712-986B-797DF3D72585}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>degree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S21_ph</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Student ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aurora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyndi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angela</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,17 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35492822-1D3E-4689-9B05-80A97370A289}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -449,187 +487,110 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-30</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
+        <v>69</v>
+      </c>
+      <c r="E2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-25</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="C5">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>56</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>-20</v>
-      </c>
-      <c r="C4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-15</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-10</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-5</v>
-      </c>
       <c r="C7">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>122</v>
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
